--- a/documentation/Sprint Backlog.xlsx
+++ b/documentation/Sprint Backlog.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rs00207\Documents\GitHub\PirateShipInventoryManagementSystem\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9213A0E-386A-4EDD-80D9-777E9FB5483E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF956A0-A361-4D4A-AB8E-0CD4D7EE7091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="1755" windowWidth="21765" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3045" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>Related User Story</t>
   </si>
@@ -127,6 +136,12 @@
   </si>
   <si>
     <t>Nick</t>
+  </si>
+  <si>
+    <t>Manage User Accounts And Roles</t>
+  </si>
+  <si>
+    <t>Implement Officer's Adding New Users</t>
   </si>
 </sst>
 </file>
@@ -222,13 +237,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
@@ -344,7 +359,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -496,7 +511,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -504,6 +518,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1401,38 +1416,38 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
     <col min="2" max="2" width="59.140625" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1445,7 +1460,7 @@
       <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1601,14 +1616,14 @@
         <v>16</v>
       </c>
       <c r="C11" s="1">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1673,14 +1688,14 @@
         <v>25</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1701,16 +1716,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1719,7 +1743,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1728,7 +1752,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1737,7 +1761,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1746,7 +1770,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1755,7 +1779,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1764,7 +1788,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1773,7 +1797,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1782,7 +1806,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1791,13 +1815,13 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="3">
         <f>SUM(C3:C26)</f>
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" ref="D27:G27" si="0">SUM(D3:D26)</f>

--- a/documentation/Sprint Backlog.xlsx
+++ b/documentation/Sprint Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rs00207\Documents\GitHub\PirateShipInventoryManagementSystem\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF956A0-A361-4D4A-AB8E-0CD4D7EE7091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3CC5DC-FC65-47B5-A1C5-BA473F30C447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="1755" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>Related User Story</t>
   </si>
@@ -45,18 +45,6 @@
     <t>Initial Estimate</t>
   </si>
   <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
-  <si>
     <t>Amount Remaining After…</t>
   </si>
   <si>
@@ -138,10 +126,19 @@
     <t>Nick</t>
   </si>
   <si>
-    <t>Manage User Accounts And Roles</t>
-  </si>
-  <si>
-    <t>Implement Officer's Adding New Users</t>
+    <t>Update Add Stock Page to Include Selection of Stock Category</t>
+  </si>
+  <si>
+    <t>Mon&amp;Tues</t>
+  </si>
+  <si>
+    <t>Wed&amp;Thurs</t>
+  </si>
+  <si>
+    <t>Fri&amp;Sat</t>
+  </si>
+  <si>
+    <t>Sun&amp;Mon</t>
   </si>
 </sst>
 </file>
@@ -359,7 +356,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>20.5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1416,7 +1413,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,6 +1421,10 @@
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
     <col min="2" max="2" width="59.140625" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1438,7 +1439,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -1449,27 +1450,27 @@
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="5" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1479,15 +1480,15 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1497,15 +1498,15 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -1515,15 +1516,15 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1533,15 +1534,15 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -1551,15 +1552,15 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -1569,15 +1570,15 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -1587,15 +1588,15 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
         <v>1.5</v>
@@ -1605,15 +1606,15 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C11" s="1">
         <v>0.5</v>
@@ -1623,15 +1624,15 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
         <v>1.5</v>
@@ -1641,15 +1642,15 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
         <v>0.5</v>
@@ -1659,15 +1660,15 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -1677,15 +1678,15 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C15" s="1">
         <v>0.5</v>
@@ -1695,15 +1696,15 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
@@ -1713,25 +1714,25 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1817,11 +1818,11 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3">
         <f>SUM(C3:C26)</f>
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" ref="D27:G27" si="0">SUM(D3:D26)</f>

--- a/documentation/Sprint Backlog.xlsx
+++ b/documentation/Sprint Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rs00207\Documents\GitHub\PirateShipInventoryManagementSystem\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3CC5DC-FC65-47B5-A1C5-BA473F30C447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA1ACED-C34D-4B91-AF8D-C61E520EA3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1755" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="1785" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1412,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,7 +1475,9 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1493,7 +1495,9 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1511,7 +1515,9 @@
       <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1529,7 +1535,9 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1547,7 +1555,9 @@
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1565,7 +1575,9 @@
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1583,7 +1595,9 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1601,7 +1615,9 @@
       <c r="C10" s="1">
         <v>1.5</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>1.5</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1619,7 +1635,9 @@
       <c r="C11" s="1">
         <v>0.5</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1637,7 +1655,9 @@
       <c r="C12" s="1">
         <v>1.5</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1655,7 +1675,9 @@
       <c r="C13" s="1">
         <v>0.5</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1673,7 +1695,9 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1691,7 +1715,9 @@
       <c r="C15" s="1">
         <v>0.5</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1709,7 +1735,9 @@
       <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1727,7 +1755,9 @@
       <c r="C17" s="1">
         <v>1.5</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1826,7 +1856,7 @@
       </c>
       <c r="D27" s="3">
         <f t="shared" ref="D27:G27" si="0">SUM(D3:D26)</f>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" si="0"/>

--- a/documentation/Sprint Backlog.xlsx
+++ b/documentation/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rs00207\Documents\GitHub\PirateShipInventoryManagementSystem\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA1ACED-C34D-4B91-AF8D-C61E520EA3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DEA193-E697-44BB-823A-8BBE82F51EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2310" yWindow="1785" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1413,7 +1413,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,7 +1598,9 @@
       <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" t="s">

--- a/documentation/Sprint Backlog.xlsx
+++ b/documentation/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rs00207\Documents\GitHub\PirateShipInventoryManagementSystem\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DEA193-E697-44BB-823A-8BBE82F51EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46988435-39E2-4867-BC07-F5F94CEC029E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2310" yWindow="1785" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1538,7 +1538,9 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" t="s">
@@ -1558,7 +1560,9 @@
       <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" t="s">
@@ -1578,7 +1582,9 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" t="s">
@@ -1620,7 +1626,9 @@
       <c r="D10" s="2">
         <v>1.5</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" t="s">
@@ -1660,7 +1668,9 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" t="s">
@@ -1680,7 +1690,9 @@
       <c r="D13" s="2">
         <v>0.5</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" t="s">
@@ -1700,7 +1712,9 @@
       <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" t="s">

--- a/documentation/Sprint Backlog.xlsx
+++ b/documentation/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rs00207\Documents\GitHub\PirateShipInventoryManagementSystem\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46988435-39E2-4867-BC07-F5F94CEC029E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C035DDDB-7B9B-4434-875A-DD58C355F2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2310" yWindow="1785" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1413,7 +1413,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,7 +1648,9 @@
       <c r="D11" s="2">
         <v>0.5</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" t="s">
@@ -1734,7 +1736,9 @@
       <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" t="s">

--- a/documentation/Sprint Backlog.xlsx
+++ b/documentation/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rs00207\Documents\GitHub\PirateShipInventoryManagementSystem\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C035DDDB-7B9B-4434-875A-DD58C355F2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DF4F5D-4AB3-4A60-8AC9-6295B8CDE62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2310" yWindow="1785" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,13 +359,13 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1412,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,9 +1478,15 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
       <c r="H3" t="s">
         <v>29</v>
       </c>
@@ -1498,9 +1504,15 @@
       <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
       <c r="H4" t="s">
         <v>29</v>
       </c>
@@ -1516,11 +1528,17 @@
         <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
       <c r="H5" t="s">
         <v>29</v>
       </c>
@@ -1541,8 +1559,12 @@
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
       <c r="H6" t="s">
         <v>27</v>
       </c>
@@ -1563,8 +1585,12 @@
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
       <c r="H7" t="s">
         <v>27</v>
       </c>
@@ -1585,8 +1611,12 @@
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
       <c r="H8" t="s">
         <v>28</v>
       </c>
@@ -1607,8 +1637,12 @@
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
       <c r="H9" t="s">
         <v>28</v>
       </c>
@@ -1629,8 +1663,12 @@
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
       <c r="H10" t="s">
         <v>28</v>
       </c>
@@ -1649,10 +1687,14 @@
         <v>0.5</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
       <c r="H11" t="s">
         <v>28</v>
       </c>
@@ -1673,8 +1715,12 @@
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
       <c r="H12" t="s">
         <v>27</v>
       </c>
@@ -1695,8 +1741,12 @@
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
       <c r="H13" t="s">
         <v>28</v>
       </c>
@@ -1717,8 +1767,12 @@
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
       <c r="H14" t="s">
         <v>28</v>
       </c>
@@ -1734,13 +1788,17 @@
         <v>0.5</v>
       </c>
       <c r="D15" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
       <c r="H15" t="s">
         <v>28</v>
       </c>
@@ -1758,9 +1816,15 @@
       <c r="D16" s="2">
         <v>2</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
       <c r="H16" t="s">
         <v>29</v>
       </c>
@@ -1778,9 +1842,15 @@
       <c r="D17" s="2">
         <v>0</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
       <c r="H17" t="s">
         <v>27</v>
       </c>
@@ -1876,15 +1946,15 @@
       </c>
       <c r="D27" s="3">
         <f t="shared" ref="D27:G27" si="0">SUM(D3:D26)</f>
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="0"/>
